--- a/Kuethe & Chow comparison.xlsx
+++ b/Kuethe & Chow comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eden\Documents\GitHub\AerodynamicsOfWingsAndBodies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{501F860F-C709-425A-B309-80D75D4353E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7879B4B-3B5B-4726-A0F3-89AA0F977C4C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11244" xr2:uid="{D334C791-3B7A-452B-B771-B724CFF401CF}"/>
   </bookViews>
